--- a/data/panYeast_exchangeRXNs.xlsx
+++ b/data/panYeast_exchangeRXNs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\github\Unified_Yeast_GEMs_Database_from_13pro\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\github\Unified_Yeast_GEMs_Database_from_13pro\Unified_Yeast_GEMs_Database\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F30CB7-F5BA-44A9-8EE9-BEC5A8637B8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81E24B95-77B7-42BB-83B3-61790559A169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8893,7 +8893,6 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A50F930-086A-4273-A9C8-9B04F5A0CF93}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:C62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -9023,7 +9022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>585</v>
       </c>
@@ -9196,7 +9195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>526</v>
       </c>
@@ -9579,13 +9578,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C62" xr:uid="{3A50F930-086A-4273-A9C8-9B04F5A0CF93}">
-    <filterColumn colId="2">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:C62" xr:uid="{3A50F930-086A-4273-A9C8-9B04F5A0CF93}"/>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
